--- a/Optimisation8.xlsx
+++ b/Optimisation8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{26F4DA00-74B7-4234-89F6-908B12734AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C2445B3-AA41-4BD9-A9D0-B072F6F18E0E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{26F4DA00-74B7-4234-89F6-908B12734AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52ABAD4F-1B7C-487A-BDD1-6CDBA366495B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2.76</v>
       </c>
@@ -545,13 +539,10 @@
         <v>-6.4071080830023303E-2</v>
       </c>
       <c r="P2">
-        <v>0.45529810471534199</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>5.77</v>
       </c>
@@ -598,13 +589,10 @@
         <v>-0.144430527802554</v>
       </c>
       <c r="P3">
-        <v>0.51380672733431998</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>6.49</v>
       </c>
@@ -651,13 +639,10 @@
         <v>-0.13485199501068601</v>
       </c>
       <c r="P4">
-        <v>0.485462616381797</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>9.7200000000000006</v>
       </c>
@@ -704,13 +689,10 @@
         <v>-0.19184057736631999</v>
       </c>
       <c r="P5">
-        <v>0.33355589386763201</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1.52</v>
       </c>
@@ -757,13 +739,10 @@
         <v>-0.10489101226193701</v>
       </c>
       <c r="P6">
-        <v>0.62950694906997295</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>7.98</v>
       </c>
@@ -810,13 +789,10 @@
         <v>1.4741363411877101E-2</v>
       </c>
       <c r="P7">
-        <v>0.767222341170267</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>4.28</v>
       </c>
@@ -863,13 +839,10 @@
         <v>-9.1214249984863702E-2</v>
       </c>
       <c r="P8">
-        <v>0.66441649877720799</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4.31149505911619</v>
       </c>
@@ -916,13 +889,10 @@
         <v>-3.6245518439629601E-2</v>
       </c>
       <c r="P9">
-        <v>0.53234314344748801</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>10</v>
       </c>
@@ -969,13 +939,10 @@
         <v>-0.117722877378254</v>
       </c>
       <c r="P10">
-        <v>0.57653405390476398</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8.9225034112163204</v>
       </c>
@@ -1022,13 +989,10 @@
         <v>-0.20904549031911801</v>
       </c>
       <c r="P11">
-        <v>0.23856423974030699</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>6.0878072946551001</v>
       </c>
@@ -1075,13 +1039,10 @@
         <v>-8.2681450414096205E-2</v>
       </c>
       <c r="P12">
-        <v>0.57308460210979895</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1128,13 +1089,10 @@
         <v>-0.21756889785794301</v>
       </c>
       <c r="P13">
-        <v>0.19641622278354401</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1.35694504284538</v>
       </c>
@@ -1181,13 +1139,10 @@
         <v>-0.111071629078293</v>
       </c>
       <c r="P14">
-        <v>0.60086155986930201</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2.03256287908934</v>
       </c>
@@ -1234,13 +1189,10 @@
         <v>-6.7109460289331999E-2</v>
       </c>
       <c r="P15">
-        <v>0.47731962427871399</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1.7309876870335801</v>
       </c>
@@ -1287,13 +1239,10 @@
         <v>-7.4747891396471797E-2</v>
       </c>
       <c r="P16">
-        <v>0.81588376820530095</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>3.8643732643141999</v>
       </c>
@@ -1340,13 +1289,10 @@
         <v>-2.3357444626308701E-2</v>
       </c>
       <c r="P17">
-        <v>0.67559019389235198</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>9.3100091659458997</v>
       </c>
@@ -1393,13 +1339,10 @@
         <v>-0.10873518763131899</v>
       </c>
       <c r="P18">
-        <v>0.64131338079989297</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>3.42962058933275</v>
       </c>
@@ -1446,13 +1389,10 @@
         <v>-0.11717505726625101</v>
       </c>
       <c r="P19">
-        <v>0.574465327622386</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3.0477912658126902</v>
       </c>
@@ -1499,13 +1439,10 @@
         <v>-0.17617747158820601</v>
       </c>
       <c r="P20">
-        <v>0.301152223588245</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>5.6469057183214701</v>
       </c>
@@ -1552,13 +1489,10 @@
         <v>-0.21607974246780901</v>
       </c>
       <c r="P21">
-        <v>0.126105480714652</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>7.41951992311603</v>
       </c>
@@ -1605,13 +1539,10 @@
         <v>-3.3261153214880698E-2</v>
       </c>
       <c r="P22">
-        <v>0.27382461984161899</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>6.2347093108994596</v>
       </c>
@@ -1658,13 +1589,10 @@
         <v>-3.4796746027052302E-3</v>
       </c>
       <c r="P23">
-        <v>0.41556031062618198</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>2.0562635776759302</v>
       </c>
@@ -1711,13 +1639,10 @@
         <v>-9.9948108685181197E-2</v>
       </c>
       <c r="P24">
-        <v>0.67207945652326095</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>5.9572208676671004</v>
       </c>
@@ -1764,13 +1689,10 @@
         <v>-0.12691957793799499</v>
       </c>
       <c r="P25">
-        <v>0.56971750865417603</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>3.9970389586041102</v>
       </c>
@@ -1817,13 +1739,10 @@
         <v>-0.146447738800041</v>
       </c>
       <c r="P26">
-        <v>0.48126067219303398</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1870,13 +1789,10 @@
         <v>2.1460161484972502E-2</v>
       </c>
       <c r="P27">
-        <v>0.53088204577460296</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2.1431611617542301</v>
       </c>
@@ -1923,13 +1839,10 @@
         <v>-5.96407616719105E-2</v>
       </c>
       <c r="P28">
-        <v>0.50116165892034004</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>3.0366235347786499</v>
       </c>
@@ -1976,13 +1889,10 @@
         <v>-0.12727170517015099</v>
       </c>
       <c r="P29">
-        <v>0.52840698084340598</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>7.6432214552586499</v>
       </c>
@@ -2029,13 +1939,10 @@
         <v>-0.19797976930676001</v>
       </c>
       <c r="P30">
-        <v>0.23558692600692899</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1.48912091249218</v>
       </c>
@@ -2082,13 +1989,10 @@
         <v>-1.8842574145919899E-2</v>
       </c>
       <c r="P31">
-        <v>0.37314886696463501</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1.49536820041438</v>
       </c>
@@ -2135,13 +2039,10 @@
         <v>-0.119178611560147</v>
       </c>
       <c r="P32">
-        <v>0.56292158390281999</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6.9414908149347596</v>
       </c>
@@ -2188,13 +2089,10 @@
         <v>3.2537179899132303E-2</v>
       </c>
       <c r="P33">
-        <v>0.90058386782676103</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7.8990804957111296</v>
       </c>
@@ -2241,13 +2139,10 @@
         <v>-0.230999262250903</v>
       </c>
       <c r="P34">
-        <v>6.9238167129107797E-2</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>8.52786121117507</v>
       </c>
@@ -2294,13 +2189,10 @@
         <v>-0.18925073901612299</v>
       </c>
       <c r="P35">
-        <v>0.382726830275887</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1.6648203563406401</v>
       </c>
@@ -2347,13 +2239,10 @@
         <v>-7.3113723342716097E-2</v>
       </c>
       <c r="P36">
-        <v>0.47796941883577398</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>6.3752579616916698</v>
       </c>
@@ -2400,13 +2289,10 @@
         <v>-0.213058910282313</v>
       </c>
       <c r="P37">
-        <v>0.140729951514248</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1.8396713286066699</v>
       </c>
@@ -2453,13 +2339,10 @@
         <v>-0.133348760570873</v>
       </c>
       <c r="P38">
-        <v>0.48219010136247198</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>3.6485965432226002</v>
       </c>
@@ -2506,13 +2389,10 @@
         <v>2.5689265812743198E-2</v>
       </c>
       <c r="P39">
-        <v>0.90806343720902205</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>7.0724090847017997</v>
       </c>
@@ -2559,13 +2439,10 @@
         <v>-0.22900084336038801</v>
       </c>
       <c r="P40">
-        <v>0.12154509617859</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>7.1953356119864704</v>
       </c>
@@ -2612,13 +2489,10 @@
         <v>-0.15264800013263199</v>
       </c>
       <c r="P41">
-        <v>0.43155441015972401</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>4.3080785944936002</v>
       </c>
@@ -2665,13 +2539,10 @@
         <v>-0.16194795456439801</v>
       </c>
       <c r="P42">
-        <v>0.39781052602434003</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1.4153963558304801</v>
       </c>
@@ -2718,13 +2589,10 @@
         <v>5.7907529393041501E-2</v>
       </c>
       <c r="P43">
-        <v>0.62157814869765504</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>4.5249830089841199</v>
       </c>
@@ -2771,13 +2639,10 @@
         <v>-0.17026693968253201</v>
       </c>
       <c r="P44">
-        <v>0.34568055224414201</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>7.9637978645151799</v>
       </c>
@@ -2824,13 +2689,10 @@
         <v>-0.24012722174708401</v>
       </c>
       <c r="P45">
-        <v>4.6261985054373803E-2</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>5.3793924438893601</v>
       </c>
@@ -2877,13 +2739,10 @@
         <v>-0.201533999560602</v>
       </c>
       <c r="P46">
-        <v>0.20264939923542299</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>5.2987623220362101</v>
       </c>
@@ -2930,13 +2789,10 @@
         <v>-0.20791620602924701</v>
       </c>
       <c r="P47">
-        <v>0.16950911906891999</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>9.1770431331266504</v>
       </c>
@@ -2983,13 +2839,10 @@
         <v>-0.128095785500972</v>
       </c>
       <c r="P48">
-        <v>0.53713436349543597</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>6.6171153687119704</v>
       </c>
@@ -3036,13 +2889,10 @@
         <v>-0.23146769740079701</v>
       </c>
       <c r="P49">
-        <v>6.1255015157421197E-2</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>3.90510831772764</v>
       </c>
@@ -3089,13 +2939,10 @@
         <v>-0.20750989748228901</v>
       </c>
       <c r="P50">
-        <v>0.17078735688581601</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>8.1461930022403699</v>
       </c>
@@ -3142,9 +2989,6 @@
         <v>-0.133257272583817</v>
       </c>
       <c r="P51">
-        <v>0.52405907881805902</v>
-      </c>
-      <c r="Q51">
         <v>1</v>
       </c>
     </row>
